--- a/File2.xlsx
+++ b/File2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitagrawal8/Gitstuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D5642-A902-1F42-B7DE-6F6FDFCAC273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5E68E-5C4F-744A-8809-1B323D895F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{92FA3598-26E3-124F-8ADA-C8C2A521C001}"/>
   </bookViews>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>updated by X</t>
   </si>
 </sst>
 </file>
@@ -389,9 +392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AA8FC9-EDC5-8F41-AEA9-CB9D5B249F9B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -400,6 +405,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
